--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Apln-Aplnr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Apln-Aplnr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Aplnr</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.4275867253785</v>
+        <v>39.10759433333333</v>
       </c>
       <c r="H2">
-        <v>32.4275867253785</v>
+        <v>117.322783</v>
       </c>
       <c r="I2">
-        <v>0.8453874674332225</v>
+        <v>0.8616392443188864</v>
       </c>
       <c r="J2">
-        <v>0.8453874674332225</v>
+        <v>0.8616392443188866</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.62891327434</v>
+        <v>139.378296</v>
       </c>
       <c r="N2">
-        <v>138.62891327434</v>
+        <v>418.134888</v>
       </c>
       <c r="O2">
-        <v>0.991901628683084</v>
+        <v>0.9913268109266251</v>
       </c>
       <c r="P2">
-        <v>0.991901628683084</v>
+        <v>0.9913268109266252</v>
       </c>
       <c r="Q2">
-        <v>4495.401107848635</v>
+        <v>5450.749858839256</v>
       </c>
       <c r="R2">
-        <v>4495.401107848635</v>
+        <v>49056.74872955331</v>
       </c>
       <c r="S2">
-        <v>0.8385412058152809</v>
+        <v>0.8541660842398688</v>
       </c>
       <c r="T2">
-        <v>0.8385412058152809</v>
+        <v>0.8541660842398692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.4275867253785</v>
+        <v>39.10759433333333</v>
       </c>
       <c r="H3">
-        <v>32.4275867253785</v>
+        <v>117.322783</v>
       </c>
       <c r="I3">
-        <v>0.8453874674332225</v>
+        <v>0.8616392443188864</v>
       </c>
       <c r="J3">
-        <v>0.8453874674332225</v>
+        <v>0.8616392443188866</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.800216613910912</v>
+        <v>0.80079</v>
       </c>
       <c r="N3">
-        <v>0.800216613910912</v>
+        <v>2.40237</v>
       </c>
       <c r="O3">
-        <v>0.005725617722088973</v>
+        <v>0.005695611294616001</v>
       </c>
       <c r="P3">
-        <v>0.005725617722088973</v>
+        <v>0.005695611294616001</v>
       </c>
       <c r="Q3">
-        <v>25.94909364668482</v>
+        <v>31.31697046619</v>
       </c>
       <c r="R3">
-        <v>25.94909364668482</v>
+        <v>281.85273419571</v>
       </c>
       <c r="S3">
-        <v>0.004840365465567572</v>
+        <v>0.004907562211827045</v>
       </c>
       <c r="T3">
-        <v>0.004840365465567572</v>
+        <v>0.004907562211827046</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.4275867253785</v>
+        <v>39.10759433333333</v>
       </c>
       <c r="H4">
-        <v>32.4275867253785</v>
+        <v>117.322783</v>
       </c>
       <c r="I4">
-        <v>0.8453874674332225</v>
+        <v>0.8616392443188864</v>
       </c>
       <c r="J4">
-        <v>0.8453874674332225</v>
+        <v>0.8616392443188866</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.129293699159815</v>
+        <v>0.1616676666666667</v>
       </c>
       <c r="N4">
-        <v>0.129293699159815</v>
+        <v>0.485003</v>
       </c>
       <c r="O4">
-        <v>0.0009251073801703057</v>
+        <v>0.001149859748799162</v>
       </c>
       <c r="P4">
-        <v>0.0009251073801703057</v>
+        <v>0.001149859748799162</v>
       </c>
       <c r="Q4">
-        <v>4.192682642549898</v>
+        <v>6.322433524816555</v>
       </c>
       <c r="R4">
-        <v>4.192682642549898</v>
+        <v>56.901901723349</v>
       </c>
       <c r="S4">
-        <v>0.0007820741852259581</v>
+        <v>0.000990764285028015</v>
       </c>
       <c r="T4">
-        <v>0.0007820741852259581</v>
+        <v>0.0009907642850280152</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.4275867253785</v>
+        <v>39.10759433333333</v>
       </c>
       <c r="H5">
-        <v>32.4275867253785</v>
+        <v>117.322783</v>
       </c>
       <c r="I5">
-        <v>0.8453874674332225</v>
+        <v>0.8616392443188864</v>
       </c>
       <c r="J5">
-        <v>0.8453874674332225</v>
+        <v>0.8616392443188866</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0930131471085716</v>
+        <v>0.1451263333333333</v>
       </c>
       <c r="N5">
-        <v>0.0930131471085716</v>
+        <v>0.435379</v>
       </c>
       <c r="O5">
-        <v>0.0006655169540523883</v>
+        <v>0.001032209672048277</v>
       </c>
       <c r="P5">
-        <v>0.0006655169540523883</v>
+        <v>0.001032209672048277</v>
       </c>
       <c r="Q5">
-        <v>3.016191894463594</v>
+        <v>5.67554177108411</v>
       </c>
       <c r="R5">
-        <v>3.016191894463594</v>
+        <v>51.079875939757</v>
       </c>
       <c r="S5">
-        <v>0.0005626196923202208</v>
+        <v>0.000889392361802323</v>
       </c>
       <c r="T5">
-        <v>0.0005626196923202208</v>
+        <v>0.0008893923618023235</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.4275867253785</v>
+        <v>39.10759433333333</v>
       </c>
       <c r="H6">
-        <v>32.4275867253785</v>
+        <v>117.322783</v>
       </c>
       <c r="I6">
-        <v>0.8453874674332225</v>
+        <v>0.8616392443188864</v>
       </c>
       <c r="J6">
-        <v>0.8453874674332225</v>
+        <v>0.8616392443188866</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.109310970263852</v>
+        <v>0.1118466666666667</v>
       </c>
       <c r="N6">
-        <v>0.109310970263852</v>
+        <v>0.33554</v>
       </c>
       <c r="O6">
-        <v>0.0007821292606043418</v>
+        <v>0.0007955083579113345</v>
       </c>
       <c r="P6">
-        <v>0.0007821292606043418</v>
+        <v>0.0007955083579113347</v>
       </c>
       <c r="Q6">
-        <v>3.544690968266331</v>
+        <v>4.374054067535555</v>
       </c>
       <c r="R6">
-        <v>3.544690968266331</v>
+        <v>39.36648660782</v>
       </c>
       <c r="S6">
-        <v>0.0006612022748277234</v>
+        <v>0.0006854412203600804</v>
       </c>
       <c r="T6">
-        <v>0.0006612022748277234</v>
+        <v>0.0006854412203600808</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.5054215149493</v>
+        <v>5.644020333333333</v>
       </c>
       <c r="H7">
-        <v>5.5054215149493</v>
+        <v>16.932061</v>
       </c>
       <c r="I7">
-        <v>0.1435263866870759</v>
+        <v>0.1243520471620699</v>
       </c>
       <c r="J7">
-        <v>0.1435263866870759</v>
+        <v>0.1243520471620699</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.62891327434</v>
+        <v>139.378296</v>
       </c>
       <c r="N7">
-        <v>138.62891327434</v>
+        <v>418.134888</v>
       </c>
       <c r="O7">
-        <v>0.991901628683084</v>
+        <v>0.9913268109266251</v>
       </c>
       <c r="P7">
-        <v>0.991901628683084</v>
+        <v>0.9913268109266252</v>
       </c>
       <c r="Q7">
-        <v>763.210601734592</v>
+        <v>786.653936649352</v>
       </c>
       <c r="R7">
-        <v>763.210601734592</v>
+        <v>7079.885429844167</v>
       </c>
       <c r="S7">
-        <v>0.1423640567139087</v>
+        <v>0.123273518345372</v>
       </c>
       <c r="T7">
-        <v>0.1423640567139087</v>
+        <v>0.123273518345372</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.5054215149493</v>
+        <v>5.644020333333333</v>
       </c>
       <c r="H8">
-        <v>5.5054215149493</v>
+        <v>16.932061</v>
       </c>
       <c r="I8">
-        <v>0.1435263866870759</v>
+        <v>0.1243520471620699</v>
       </c>
       <c r="J8">
-        <v>0.1435263866870759</v>
+        <v>0.1243520471620699</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.800216613910912</v>
+        <v>0.80079</v>
       </c>
       <c r="N8">
-        <v>0.800216613910912</v>
+        <v>2.40237</v>
       </c>
       <c r="O8">
-        <v>0.005725617722088973</v>
+        <v>0.005695611294616001</v>
       </c>
       <c r="P8">
-        <v>0.005725617722088973</v>
+        <v>0.005695611294616001</v>
       </c>
       <c r="Q8">
-        <v>4.405529762845013</v>
+        <v>4.519675042729999</v>
       </c>
       <c r="R8">
-        <v>4.405529762845013</v>
+        <v>40.67707538456999</v>
       </c>
       <c r="S8">
-        <v>0.0008217772232029165</v>
+        <v>0.0007082609243249066</v>
       </c>
       <c r="T8">
-        <v>0.0008217772232029165</v>
+        <v>0.0007082609243249067</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.5054215149493</v>
+        <v>5.644020333333333</v>
       </c>
       <c r="H9">
-        <v>5.5054215149493</v>
+        <v>16.932061</v>
       </c>
       <c r="I9">
-        <v>0.1435263866870759</v>
+        <v>0.1243520471620699</v>
       </c>
       <c r="J9">
-        <v>0.1435263866870759</v>
+        <v>0.1243520471620699</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.129293699159815</v>
+        <v>0.1616676666666667</v>
       </c>
       <c r="N9">
-        <v>0.129293699159815</v>
+        <v>0.485003</v>
       </c>
       <c r="O9">
-        <v>0.0009251073801703057</v>
+        <v>0.001149859748799162</v>
       </c>
       <c r="P9">
-        <v>0.0009251073801703057</v>
+        <v>0.001149859748799162</v>
       </c>
       <c r="Q9">
-        <v>0.7118163131018278</v>
+        <v>0.912455597909222</v>
       </c>
       <c r="R9">
-        <v>0.7118163131018278</v>
+        <v>8.212100381182998</v>
       </c>
       <c r="S9">
-        <v>0.000132777319573391</v>
+        <v>0.0001429874137124392</v>
       </c>
       <c r="T9">
-        <v>0.000132777319573391</v>
+        <v>0.0001429874137124393</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.5054215149493</v>
+        <v>5.644020333333333</v>
       </c>
       <c r="H10">
-        <v>5.5054215149493</v>
+        <v>16.932061</v>
       </c>
       <c r="I10">
-        <v>0.1435263866870759</v>
+        <v>0.1243520471620699</v>
       </c>
       <c r="J10">
-        <v>0.1435263866870759</v>
+        <v>0.1243520471620699</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0930131471085716</v>
+        <v>0.1451263333333333</v>
       </c>
       <c r="N10">
-        <v>0.0930131471085716</v>
+        <v>0.435379</v>
       </c>
       <c r="O10">
-        <v>0.0006655169540523883</v>
+        <v>0.001032209672048277</v>
       </c>
       <c r="P10">
-        <v>0.0006655169540523883</v>
+        <v>0.001032209672048277</v>
       </c>
       <c r="Q10">
-        <v>0.5120765812646744</v>
+        <v>0.8190959762354444</v>
       </c>
       <c r="R10">
-        <v>0.5120765812646744</v>
+        <v>7.371863786119</v>
       </c>
       <c r="S10">
-        <v>9.551924369412801E-05</v>
+        <v>0.000128357385819692</v>
       </c>
       <c r="T10">
-        <v>9.551924369412801E-05</v>
+        <v>0.0001283573858196921</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.5054215149493</v>
+        <v>5.644020333333333</v>
       </c>
       <c r="H11">
-        <v>5.5054215149493</v>
+        <v>16.932061</v>
       </c>
       <c r="I11">
-        <v>0.1435263866870759</v>
+        <v>0.1243520471620699</v>
       </c>
       <c r="J11">
-        <v>0.1435263866870759</v>
+        <v>0.1243520471620699</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.109310970263852</v>
+        <v>0.1118466666666667</v>
       </c>
       <c r="N11">
-        <v>0.109310970263852</v>
+        <v>0.33554</v>
       </c>
       <c r="O11">
-        <v>0.0007821292606043418</v>
+        <v>0.0007955083579113345</v>
       </c>
       <c r="P11">
-        <v>0.0007821292606043418</v>
+        <v>0.0007955083579113347</v>
       </c>
       <c r="Q11">
-        <v>0.601802967510594</v>
+        <v>0.6312648608822221</v>
       </c>
       <c r="R11">
-        <v>0.601802967510594</v>
+        <v>5.681383747939999</v>
       </c>
       <c r="S11">
-        <v>0.0001122561866967755</v>
+        <v>9.892309284081101E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001122561866967755</v>
+        <v>9.892309284081105E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.425245193255272</v>
+        <v>0.06495833333333333</v>
       </c>
       <c r="H12">
-        <v>0.425245193255272</v>
+        <v>0.194875</v>
       </c>
       <c r="I12">
-        <v>0.01108614587970174</v>
+        <v>0.001431196426159129</v>
       </c>
       <c r="J12">
-        <v>0.01108614587970174</v>
+        <v>0.001431196426159129</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.62891327434</v>
+        <v>139.378296</v>
       </c>
       <c r="N12">
-        <v>138.62891327434</v>
+        <v>418.134888</v>
       </c>
       <c r="O12">
-        <v>0.991901628683084</v>
+        <v>0.9913268109266251</v>
       </c>
       <c r="P12">
-        <v>0.991901628683084</v>
+        <v>0.9913268109266252</v>
       </c>
       <c r="Q12">
-        <v>58.95127901611505</v>
+        <v>9.053781810999999</v>
       </c>
       <c r="R12">
-        <v>58.95127901611505</v>
+        <v>81.484036299</v>
       </c>
       <c r="S12">
-        <v>0.01099636615389442</v>
+        <v>0.001418783388953912</v>
       </c>
       <c r="T12">
-        <v>0.01099636615389442</v>
+        <v>0.001418783388953913</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.425245193255272</v>
+        <v>0.06495833333333333</v>
       </c>
       <c r="H13">
-        <v>0.425245193255272</v>
+        <v>0.194875</v>
       </c>
       <c r="I13">
-        <v>0.01108614587970174</v>
+        <v>0.001431196426159129</v>
       </c>
       <c r="J13">
-        <v>0.01108614587970174</v>
+        <v>0.001431196426159129</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.800216613910912</v>
+        <v>0.80079</v>
       </c>
       <c r="N13">
-        <v>0.800216613910912</v>
+        <v>2.40237</v>
       </c>
       <c r="O13">
-        <v>0.005725617722088973</v>
+        <v>0.005695611294616001</v>
       </c>
       <c r="P13">
-        <v>0.005725617722088973</v>
+        <v>0.005695611294616001</v>
       </c>
       <c r="Q13">
-        <v>0.3402882686286252</v>
+        <v>0.05201798375</v>
       </c>
       <c r="R13">
-        <v>0.3402882686286252</v>
+        <v>0.46816185375</v>
       </c>
       <c r="S13">
-        <v>6.347503331848392E-05</v>
+        <v>8.151538529645987E-06</v>
       </c>
       <c r="T13">
-        <v>6.347503331848392E-05</v>
+        <v>8.151538529645991E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.425245193255272</v>
+        <v>0.06495833333333333</v>
       </c>
       <c r="H14">
-        <v>0.425245193255272</v>
+        <v>0.194875</v>
       </c>
       <c r="I14">
-        <v>0.01108614587970174</v>
+        <v>0.001431196426159129</v>
       </c>
       <c r="J14">
-        <v>0.01108614587970174</v>
+        <v>0.001431196426159129</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.129293699159815</v>
+        <v>0.1616676666666667</v>
       </c>
       <c r="N14">
-        <v>0.129293699159815</v>
+        <v>0.485003</v>
       </c>
       <c r="O14">
-        <v>0.0009251073801703057</v>
+        <v>0.001149859748799162</v>
       </c>
       <c r="P14">
-        <v>0.0009251073801703057</v>
+        <v>0.001149859748799162</v>
       </c>
       <c r="Q14">
-        <v>0.05498152408590453</v>
+        <v>0.01050166218055555</v>
       </c>
       <c r="R14">
-        <v>0.05498152408590453</v>
+        <v>0.09451495962499999</v>
       </c>
       <c r="S14">
-        <v>1.02558753709567E-05</v>
+        <v>1.645675163065595E-06</v>
       </c>
       <c r="T14">
-        <v>1.02558753709567E-05</v>
+        <v>1.645675163065595E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.425245193255272</v>
+        <v>0.06495833333333333</v>
       </c>
       <c r="H15">
-        <v>0.425245193255272</v>
+        <v>0.194875</v>
       </c>
       <c r="I15">
-        <v>0.01108614587970174</v>
+        <v>0.001431196426159129</v>
       </c>
       <c r="J15">
-        <v>0.01108614587970174</v>
+        <v>0.001431196426159129</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0930131471085716</v>
+        <v>0.1451263333333333</v>
       </c>
       <c r="N15">
-        <v>0.0930131471085716</v>
+        <v>0.435379</v>
       </c>
       <c r="O15">
-        <v>0.0006655169540523883</v>
+        <v>0.001032209672048277</v>
       </c>
       <c r="P15">
-        <v>0.0006655169540523883</v>
+        <v>0.001032209672048277</v>
       </c>
       <c r="Q15">
-        <v>0.03955339371746557</v>
+        <v>0.00942716473611111</v>
       </c>
       <c r="R15">
-        <v>0.03955339371746557</v>
+        <v>0.084844482625</v>
       </c>
       <c r="S15">
-        <v>7.378018038039536E-06</v>
+        <v>1.47729479368238E-06</v>
       </c>
       <c r="T15">
-        <v>7.378018038039536E-06</v>
+        <v>1.477294793682381E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06495833333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.194875</v>
+      </c>
+      <c r="I16">
+        <v>0.001431196426159129</v>
+      </c>
+      <c r="J16">
+        <v>0.001431196426159129</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1118466666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.33554</v>
+      </c>
+      <c r="O16">
+        <v>0.0007955083579113345</v>
+      </c>
+      <c r="P16">
+        <v>0.0007955083579113347</v>
+      </c>
+      <c r="Q16">
+        <v>0.007265373055555554</v>
+      </c>
+      <c r="R16">
+        <v>0.06538835749999999</v>
+      </c>
+      <c r="S16">
+        <v>1.138528718822419E-06</v>
+      </c>
+      <c r="T16">
+        <v>1.13852871882242E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.570861</v>
+      </c>
+      <c r="H17">
+        <v>1.712583</v>
+      </c>
+      <c r="I17">
+        <v>0.01257751209288456</v>
+      </c>
+      <c r="J17">
+        <v>0.01257751209288457</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>139.378296</v>
+      </c>
+      <c r="N17">
+        <v>418.134888</v>
+      </c>
+      <c r="O17">
+        <v>0.9913268109266251</v>
+      </c>
+      <c r="P17">
+        <v>0.9913268109266252</v>
+      </c>
+      <c r="Q17">
+        <v>79.565633432856</v>
+      </c>
+      <c r="R17">
+        <v>716.090700895704</v>
+      </c>
+      <c r="S17">
+        <v>0.01246842495243032</v>
+      </c>
+      <c r="T17">
+        <v>0.01246842495243032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.570861</v>
+      </c>
+      <c r="H18">
+        <v>1.712583</v>
+      </c>
+      <c r="I18">
+        <v>0.01257751209288456</v>
+      </c>
+      <c r="J18">
+        <v>0.01257751209288457</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.80079</v>
+      </c>
+      <c r="N18">
+        <v>2.40237</v>
+      </c>
+      <c r="O18">
+        <v>0.005695611294616001</v>
+      </c>
+      <c r="P18">
+        <v>0.005695611294616001</v>
+      </c>
+      <c r="Q18">
+        <v>0.45713978019</v>
+      </c>
+      <c r="R18">
+        <v>4.11425802171</v>
+      </c>
+      <c r="S18">
+        <v>7.163661993440266E-05</v>
+      </c>
+      <c r="T18">
+        <v>7.163661993440266E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.425245193255272</v>
-      </c>
-      <c r="H16">
-        <v>0.425245193255272</v>
-      </c>
-      <c r="I16">
-        <v>0.01108614587970174</v>
-      </c>
-      <c r="J16">
-        <v>0.01108614587970174</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.109310970263852</v>
-      </c>
-      <c r="N16">
-        <v>0.109310970263852</v>
-      </c>
-      <c r="O16">
-        <v>0.0007821292606043418</v>
-      </c>
-      <c r="P16">
-        <v>0.0007821292606043418</v>
-      </c>
-      <c r="Q16">
-        <v>0.04648396467477303</v>
-      </c>
-      <c r="R16">
-        <v>0.04648396467477303</v>
-      </c>
-      <c r="S16">
-        <v>8.670799079842992E-06</v>
-      </c>
-      <c r="T16">
-        <v>8.670799079842992E-06</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.570861</v>
+      </c>
+      <c r="H19">
+        <v>1.712583</v>
+      </c>
+      <c r="I19">
+        <v>0.01257751209288456</v>
+      </c>
+      <c r="J19">
+        <v>0.01257751209288457</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1616676666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.485003</v>
+      </c>
+      <c r="O19">
+        <v>0.001149859748799162</v>
+      </c>
+      <c r="P19">
+        <v>0.001149859748799162</v>
+      </c>
+      <c r="Q19">
+        <v>0.09228976586099999</v>
+      </c>
+      <c r="R19">
+        <v>0.8306078927489999</v>
+      </c>
+      <c r="S19">
+        <v>1.446237489564267E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.446237489564268E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.570861</v>
+      </c>
+      <c r="H20">
+        <v>1.712583</v>
+      </c>
+      <c r="I20">
+        <v>0.01257751209288456</v>
+      </c>
+      <c r="J20">
+        <v>0.01257751209288457</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1451263333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.435379</v>
+      </c>
+      <c r="O20">
+        <v>0.001032209672048277</v>
+      </c>
+      <c r="P20">
+        <v>0.001032209672048277</v>
+      </c>
+      <c r="Q20">
+        <v>0.08284696377299999</v>
+      </c>
+      <c r="R20">
+        <v>0.745622673957</v>
+      </c>
+      <c r="S20">
+        <v>1.298262963257962E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.298262963257962E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.570861</v>
+      </c>
+      <c r="H21">
+        <v>1.712583</v>
+      </c>
+      <c r="I21">
+        <v>0.01257751209288456</v>
+      </c>
+      <c r="J21">
+        <v>0.01257751209288457</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1118466666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.33554</v>
+      </c>
+      <c r="O21">
+        <v>0.0007955083579113345</v>
+      </c>
+      <c r="P21">
+        <v>0.0007955083579113347</v>
+      </c>
+      <c r="Q21">
+        <v>0.06384889998</v>
+      </c>
+      <c r="R21">
+        <v>0.57464009982</v>
+      </c>
+      <c r="S21">
+        <v>1.000551599162055E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.000551599162056E-05</v>
       </c>
     </row>
   </sheetData>
